--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="16340" yWindow="3080" windowWidth="16980" windowHeight="17960" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ORCId" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="51">
+  <fonts count="52">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -337,6 +337,14 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="10"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <color rgb="000000FF"/>
       <sz val="10"/>
       <u val="single"/>
@@ -379,10 +387,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -447,11 +456,13 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -729,8 +740,8 @@
   </sheetPr>
   <dimension ref="A1:AA325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4631,7 +4642,11 @@
           <t>Ђорђевић</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n"/>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>0009-0004-9510-6568</t>
+        </is>
+      </c>
       <c r="E159" s="2" t="n"/>
     </row>
     <row r="160" ht="15" customHeight="1">
@@ -7925,92 +7940,82 @@
           <t>0000-0003-0834-7140</t>
         </is>
       </c>
-      <c r="E297" s="48" t="inlineStr">
+      <c r="E297" s="21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0834-7140</t>
         </is>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" t="inlineStr"/>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Ана</t>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="B298" s="46" t="inlineStr">
+        <is>
+          <t>Danijela</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Ðорђевић</t>
+          <t>Ðorđević</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>0009-0004-9510-6568</t>
-        </is>
-      </c>
-      <c r="E298" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0004-9510-6568</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr"/>
+          <t>0000-0002-8804-4037</t>
+        </is>
+      </c>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Гордана</t>
+          <t>Tijana</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Јањушевић</t>
+          <t>Vesić Pavlović</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>0009-0000-2752-0776</t>
-        </is>
-      </c>
-      <c r="E299" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0000-2752-0776</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr"/>
+          <t>0000-0001-5786-975X</t>
+        </is>
+      </c>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Марија</t>
+          <t>Ivan</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Ðорђевић</t>
-        </is>
-      </c>
-      <c r="E300" s="49" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr"/>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Тијана</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>Весић</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>0000-0001-5786-975X</t>
+          <t>Milošević</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>0009-0005-7415-2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="B301" s="46" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C301" s="46" t="inlineStr">
+        <is>
+          <t>McAteer</t>
+        </is>
+      </c>
+      <c r="D301" s="46" t="inlineStr">
+        <is>
+          <t>0009-0009-0551-563X</t>
         </is>
       </c>
       <c r="E301" s="49" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-5786-975X</t>
+          <t>https://orcid.org/0009-0009-0551-563X</t>
         </is>
       </c>
     </row>
@@ -8018,36 +8023,45 @@
       <c r="A302" t="inlineStr"/>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Милица</t>
+          <t>Ања</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Спремић</t>
-        </is>
-      </c>
-      <c r="E302" s="49" t="inlineStr"/>
+          <t>Петровић</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>0000-0003-3575-5879</t>
+        </is>
+      </c>
+      <c r="E302" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3575-5879</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Наташа</t>
+          <t>Ewelina</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Тучев</t>
+          <t>Bator</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>0000-0002-7542-7151</t>
-        </is>
-      </c>
-      <c r="E303" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-7542-7151</t>
+          <t>0000-0001-9808-5564</t>
+        </is>
+      </c>
+      <c r="E303" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0001-9808-5564</t>
         </is>
       </c>
     </row>
@@ -8055,22 +8069,22 @@
       <c r="A304" t="inlineStr"/>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Тијана</t>
+          <t>Гордана</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Парезановић</t>
+          <t>Векарић</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>0000-0003-4352-5571</t>
-        </is>
-      </c>
-      <c r="E304" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-4352-5571</t>
+          <t>0000-0002-7219-2043</t>
+        </is>
+      </c>
+      <c r="E304" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-7219-2043</t>
         </is>
       </c>
     </row>
@@ -8078,22 +8092,22 @@
       <c r="A305" t="inlineStr"/>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Даница</t>
+          <t>Тијана</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Стојановић</t>
+          <t>Парезановић</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>0009-0004-7028-0658</t>
-        </is>
-      </c>
-      <c r="E305" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0004-7028-0658</t>
+          <t>0000-0003-4352-5571</t>
+        </is>
+      </c>
+      <c r="E305" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-4352-5571</t>
         </is>
       </c>
     </row>
@@ -8101,45 +8115,36 @@
       <c r="A306" t="inlineStr"/>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ања</t>
+          <t>Данијела</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Петровић</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>0000-0003-3575-5879</t>
-        </is>
-      </c>
-      <c r="E306" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3575-5879</t>
-        </is>
-      </c>
+          <t>Ђорђевић</t>
+        </is>
+      </c>
+      <c r="E306" s="50" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr"/>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Марија</t>
+          <t>Даница</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Гагић</t>
+          <t>Стојановић</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>0009-0008-7177-9791</t>
-        </is>
-      </c>
-      <c r="E307" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0008-7177-9791</t>
+          <t>0009-0004-7028-0658</t>
+        </is>
+      </c>
+      <c r="E307" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0004-7028-0658</t>
         </is>
       </c>
     </row>
@@ -8147,22 +8152,22 @@
       <c r="A308" t="inlineStr"/>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Данијела</t>
+          <t>Гордана</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Ðорђевић</t>
+          <t>Јањушевић Лековић</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>0000-0002-8804-4037</t>
-        </is>
-      </c>
-      <c r="E308" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-8804-4037</t>
+          <t>0009-0000-2752-0776</t>
+        </is>
+      </c>
+      <c r="E308" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0000-2752-0776</t>
         </is>
       </c>
     </row>
@@ -8170,22 +8175,22 @@
       <c r="A309" t="inlineStr"/>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Antony</t>
+          <t>Ane</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Hoyte-West</t>
+          <t>Ferri</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>0000-0003-4410-6520</t>
-        </is>
-      </c>
-      <c r="E309" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-4410-6520</t>
+          <t>0000-0001-9341-8913</t>
+        </is>
+      </c>
+      <c r="E309" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0001-9341-8913</t>
         </is>
       </c>
     </row>
@@ -8193,22 +8198,22 @@
       <c r="A310" t="inlineStr"/>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Tamara</t>
+          <t>Наташа</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Kobeshavidze</t>
+          <t>Тучев</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>0009-0001-5853-8685</t>
-        </is>
-      </c>
-      <c r="E310" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0001-5853-8685</t>
+          <t>0000-0002-7542-7151</t>
+        </is>
+      </c>
+      <c r="E310" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-7542-7151</t>
         </is>
       </c>
     </row>
@@ -8216,22 +8221,22 @@
       <c r="A311" t="inlineStr"/>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Гордана</t>
+          <t>Тамара</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Векарић</t>
+          <t>Тошић</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>0000-0002-7219-2043</t>
-        </is>
-      </c>
-      <c r="E311" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-7219-2043</t>
+          <t>0009-0006-8771-2693</t>
+        </is>
+      </c>
+      <c r="E311" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0006-8771-2693</t>
         </is>
       </c>
     </row>
@@ -8239,22 +8244,22 @@
       <c r="A312" t="inlineStr"/>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Андријана</t>
+          <t>Данко</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Аничић</t>
+          <t>Камчевски</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>0009-0006-7497-8150</t>
-        </is>
-      </c>
-      <c r="E312" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0006-7497-8150</t>
+          <t>0009-0001-2497-3144</t>
+        </is>
+      </c>
+      <c r="E312" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0001-2497-3144</t>
         </is>
       </c>
     </row>
@@ -8262,22 +8267,22 @@
       <c r="A313" t="inlineStr"/>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Маја</t>
+          <t>Андријана</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Бркљач</t>
+          <t>Аничић</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>0009-0005-2793-801X</t>
-        </is>
-      </c>
-      <c r="E313" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0005-2793-801X</t>
+          <t>0009-0006-7497-8150</t>
+        </is>
+      </c>
+      <c r="E313" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0006-7497-8150</t>
         </is>
       </c>
     </row>
@@ -8285,22 +8290,22 @@
       <c r="A314" t="inlineStr"/>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Ивана</t>
+          <t>Tamara</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Чорбић</t>
+          <t>Kobeshavidze</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>0009-0005-4555-823X</t>
-        </is>
-      </c>
-      <c r="E314" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0005-4555-823X</t>
+          <t>0009-0001-5853-8685</t>
+        </is>
+      </c>
+      <c r="E314" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0001-5853-8685</t>
         </is>
       </c>
     </row>
@@ -8308,22 +8313,22 @@
       <c r="A315" t="inlineStr"/>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Мирјана</t>
+          <t>Ивана</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Вучковић</t>
+          <t>Чорбић</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>0009-0008-9215-6331</t>
-        </is>
-      </c>
-      <c r="E315" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0008-9215-6331</t>
+          <t>0009-0005-4555-823X</t>
+        </is>
+      </c>
+      <c r="E315" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0005-4555-823X</t>
         </is>
       </c>
     </row>
@@ -8331,22 +8336,22 @@
       <c r="A316" t="inlineStr"/>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Katarina</t>
+          <t>Ирена</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Lazić</t>
+          <t>Алексић-Хајдуковић</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>0009-0002-5510-4547</t>
-        </is>
-      </c>
-      <c r="E316" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0002-5510-4547</t>
+          <t>0000-0002-1884-4784</t>
+        </is>
+      </c>
+      <c r="E316" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-1884-4784</t>
         </is>
       </c>
     </row>
@@ -8354,22 +8359,22 @@
       <c r="A317" t="inlineStr"/>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Данка</t>
+          <t>Марија</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Синадиновић</t>
+          <t>Гагић</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>0000-0002-3643-5917</t>
-        </is>
-      </c>
-      <c r="E317" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-3643-5917</t>
+          <t>0009-0008-7177-9791</t>
+        </is>
+      </c>
+      <c r="E317" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0008-7177-9791</t>
         </is>
       </c>
     </row>
@@ -8377,22 +8382,22 @@
       <c r="A318" t="inlineStr"/>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Данка</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>McAteer</t>
+          <t>Синадиновић</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>0009-0009-0551-563X</t>
-        </is>
-      </c>
-      <c r="E318" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0009-0551-563X</t>
+          <t>0000-0002-3643-5917</t>
+        </is>
+      </c>
+      <c r="E318" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-3643-5917</t>
         </is>
       </c>
     </row>
@@ -8400,22 +8405,22 @@
       <c r="A319" t="inlineStr"/>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Данко</t>
+          <t>Маја</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Камчевски</t>
+          <t>Бркљач</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>0009-0001-2497-3144</t>
-        </is>
-      </c>
-      <c r="E319" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0001-2497-3144</t>
+          <t>0009-0005-2793-801X</t>
+        </is>
+      </c>
+      <c r="E319" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0005-2793-801X</t>
         </is>
       </c>
     </row>
@@ -8428,40 +8433,31 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Родић</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>0009-0007-9198-7494</t>
-        </is>
-      </c>
-      <c r="E320" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0007-9198-7494</t>
-        </is>
-      </c>
+          <t>Спремић Кончар</t>
+        </is>
+      </c>
+      <c r="E320" s="50" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr"/>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Тамара</t>
+          <t>Милица</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Тошић</t>
+          <t>Родић</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>0009-0006-8771-2693</t>
-        </is>
-      </c>
-      <c r="E321" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0006-8771-2693</t>
+          <t>0009-0007-9198-7494</t>
+        </is>
+      </c>
+      <c r="E321" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0007-9198-7494</t>
         </is>
       </c>
     </row>
@@ -8469,22 +8465,22 @@
       <c r="A322" t="inlineStr"/>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Ane</t>
+          <t>Мирјана</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Ferri</t>
+          <t>Вучковић</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>0000-0001-9341-8913</t>
-        </is>
-      </c>
-      <c r="E322" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-9341-8913</t>
+          <t>0009-0008-9215-6331</t>
+        </is>
+      </c>
+      <c r="E322" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0008-9215-6331</t>
         </is>
       </c>
     </row>
@@ -8492,45 +8488,36 @@
       <c r="A323" t="inlineStr"/>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t>Марија</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Милошевић</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>0009-0005-7415-2300</t>
-        </is>
-      </c>
-      <c r="E323" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0005-7415-2300</t>
-        </is>
-      </c>
+          <t>Ђорђевић</t>
+        </is>
+      </c>
+      <c r="E323" s="50" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr"/>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Ирена</t>
+          <t>Katarina</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Алексић-Хајдуковић</t>
+          <t>Lazić</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>0000-0002-1884-4784</t>
-        </is>
-      </c>
-      <c r="E324" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-1884-4784</t>
+          <t>0009-0002-5510-4547</t>
+        </is>
+      </c>
+      <c r="E324" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0002-5510-4547</t>
         </is>
       </c>
     </row>
@@ -8538,22 +8525,22 @@
       <c r="A325" t="inlineStr"/>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Ewelina</t>
+          <t>Antony</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Bator</t>
+          <t>Hoyte-West</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>0000-0001-9808-5564</t>
-        </is>
-      </c>
-      <c r="E325" s="49" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-9808-5564</t>
+          <t>0000-0003-4410-6520</t>
+        </is>
+      </c>
+      <c r="E325" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-4410-6520</t>
         </is>
       </c>
     </row>
@@ -8751,35 +8738,32 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E294" r:id="rId190"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E295" r:id="rId191"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E296" r:id="rId192"/>
-    <hyperlink ref="E297"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E298" r:id="rId193"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E299" r:id="rId194"/>
-    <hyperlink ref="E300"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E301" r:id="rId195"/>
-    <hyperlink ref="E302"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E303" r:id="rId196"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E304" r:id="rId197"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E305" r:id="rId198"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E306" r:id="rId199"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E307" r:id="rId200"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E308" r:id="rId201"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E309" r:id="rId202"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E310" r:id="rId203"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E311" r:id="rId204"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E312" r:id="rId205"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E313" r:id="rId206"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E314" r:id="rId207"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E315" r:id="rId208"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E316" r:id="rId209"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E317" r:id="rId210"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E318" r:id="rId211"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E319" r:id="rId212"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E320" r:id="rId213"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E321" r:id="rId214"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E322" r:id="rId215"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E323" r:id="rId216"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E324" r:id="rId217"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E325" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E297" r:id="rId193"/>
+    <hyperlink ref="E301"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E302" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E303" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E304" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E305" r:id="rId197"/>
+    <hyperlink ref="E306"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E307" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E308" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E309" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E310" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E311" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E312" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E313" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E314" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E315" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E316" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E317" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E318" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E319" r:id="rId210"/>
+    <hyperlink ref="E320"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E321" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E322" r:id="rId212"/>
+    <hyperlink ref="E323"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E324" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E325" r:id="rId214"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="16340" yWindow="3080" windowWidth="16980" windowHeight="17960" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="35840" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ORCId" sheetId="1" state="visible" r:id="rId1"/>
@@ -343,12 +343,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color rgb="000000FF"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -457,7 +456,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
@@ -738,10 +737,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA325"/>
+  <dimension ref="A1:AA324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="E307" sqref="E307"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="I286" sqref="I286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4647,7 +4646,11 @@
           <t>0009-0004-9510-6568</t>
         </is>
       </c>
-      <c r="E159" s="2" t="n"/>
+      <c r="E159" s="49" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0004-9510-6568</t>
+        </is>
+      </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="A160" s="2" t="inlineStr">
@@ -7026,7 +7029,11 @@
           <t>0009-0007-2358-2356</t>
         </is>
       </c>
-      <c r="E258" s="2" t="n"/>
+      <c r="E258" s="49" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0007-2358-2356</t>
+        </is>
+      </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="A259" s="2" t="inlineStr">
@@ -7959,7 +7966,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>0000-0002-8804-4037</t>
+          <t>0000-0001-5786-975X</t>
         </is>
       </c>
     </row>
@@ -7974,9 +7981,9 @@
           <t>Vesić Pavlović</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>0000-0001-5786-975X</t>
+      <c r="D299" s="46" t="inlineStr">
+        <is>
+          <t>0000-0001-5786-97XX</t>
         </is>
       </c>
     </row>
@@ -8013,534 +8020,497 @@
           <t>0009-0009-0551-563X</t>
         </is>
       </c>
-      <c r="E301" s="49" t="inlineStr">
+      <c r="E301" s="48" t="inlineStr">
         <is>
           <t>https://orcid.org/0009-0009-0551-563X</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr"/>
       <c r="B302" t="inlineStr">
         <is>
+          <t>Данка</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Синадиновић</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>0000-0002-3643-5917</t>
+        </is>
+      </c>
+      <c r="E302" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-3643-5917</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Данко</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Камчевски</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>0009-0001-2497-3144</t>
+        </is>
+      </c>
+      <c r="E303" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0001-2497-3144</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Мирјана</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Вучковић</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>0009-0008-9215-6331</t>
+        </is>
+      </c>
+      <c r="E304" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0008-9215-6331</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Тамара</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Тошић</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>0009-0006-8771-2693</t>
+        </is>
+      </c>
+      <c r="E305" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0006-8771-2693</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Гордана</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Јањушевић Лековић</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>0009-0000-2752-0776</t>
+        </is>
+      </c>
+      <c r="E306" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0000-2752-0776</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="inlineStr">
+        <is>
           <t>Ања</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr">
+      <c r="C307" t="inlineStr">
         <is>
           <t>Петровић</t>
         </is>
       </c>
-      <c r="D302" t="inlineStr">
+      <c r="D307" t="inlineStr">
         <is>
           <t>0000-0003-3575-5879</t>
         </is>
       </c>
-      <c r="E302" s="50" t="inlineStr">
+      <c r="E307" s="50" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3575-5879</t>
         </is>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" t="inlineStr"/>
-      <c r="B303" t="inlineStr">
+    <row r="308">
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Маја</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Бркљач</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>0009-0005-2793-801X</t>
+        </is>
+      </c>
+      <c r="E308" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0005-2793-801X</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Ивана</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Чорбић</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>0009-0005-4555-823X</t>
+        </is>
+      </c>
+      <c r="E309" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0005-4555-823X</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Милица</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Родић</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>0009-0007-9198-7494</t>
+        </is>
+      </c>
+      <c r="E310" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0007-9198-7494</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Ирена</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Алексић-Хајдуковић</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>0000-0002-1884-4784</t>
+        </is>
+      </c>
+      <c r="E311" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-1884-4784</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Андријана</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Аничић</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>0009-0006-7497-8150</t>
+        </is>
+      </c>
+      <c r="E312" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0006-7497-8150</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Ane</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Ferri</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>0000-0001-9341-8913</t>
+        </is>
+      </c>
+      <c r="E313" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0001-9341-8913</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Katarina</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Lazić</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>0009-0002-5510-4547</t>
+        </is>
+      </c>
+      <c r="E314" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0002-5510-4547</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Тијана</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Парезановић</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>0000-0003-4352-5571</t>
+        </is>
+      </c>
+      <c r="E315" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-4352-5571</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Марија</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Ђорђевић</t>
+        </is>
+      </c>
+      <c r="E316" s="50" t="n"/>
+    </row>
+    <row r="317">
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Гордана</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Векарић</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>0000-0002-7219-2043</t>
+        </is>
+      </c>
+      <c r="E317" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-7219-2043</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Марија</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Гагић</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>0009-0008-7177-9791</t>
+        </is>
+      </c>
+      <c r="E318" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0008-7177-9791</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Antony</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Hoyte-West</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>0000-0003-4410-6520</t>
+        </is>
+      </c>
+      <c r="E319" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-4410-6520</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Tamara</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Kobeshavidze</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>0009-0001-5853-8685</t>
+        </is>
+      </c>
+      <c r="E320" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0009-0001-5853-8685</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="B321" t="inlineStr">
         <is>
           <t>Ewelina</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr">
+      <c r="C321" t="inlineStr">
         <is>
           <t>Bator</t>
         </is>
       </c>
-      <c r="D303" t="inlineStr">
+      <c r="D321" t="inlineStr">
         <is>
           <t>0000-0001-9808-5564</t>
         </is>
       </c>
-      <c r="E303" s="50" t="inlineStr">
+      <c r="E321" s="50" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9808-5564</t>
         </is>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" t="inlineStr"/>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>Гордана</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>Векарић</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>0000-0002-7219-2043</t>
-        </is>
-      </c>
-      <c r="E304" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-7219-2043</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr"/>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Тијана</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>Парезановић</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>0000-0003-4352-5571</t>
-        </is>
-      </c>
-      <c r="E305" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-4352-5571</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr"/>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Данијела</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>Ђорђевић</t>
-        </is>
-      </c>
-      <c r="E306" s="50" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr"/>
-      <c r="B307" t="inlineStr">
+    <row r="322">
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Наташа</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Тучев</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>0000-0002-7542-7151</t>
+        </is>
+      </c>
+      <c r="E322" s="50" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-7542-7151</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Милица</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Спремић Кончар</t>
+        </is>
+      </c>
+      <c r="E323" s="50" t="n"/>
+    </row>
+    <row r="324">
+      <c r="B324" t="inlineStr">
         <is>
           <t>Даница</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
+      <c r="C324" t="inlineStr">
         <is>
           <t>Стојановић</t>
         </is>
       </c>
-      <c r="D307" t="inlineStr">
+      <c r="D324" t="inlineStr">
         <is>
           <t>0009-0004-7028-0658</t>
         </is>
       </c>
-      <c r="E307" s="50" t="inlineStr">
+      <c r="E324" s="50" t="inlineStr">
         <is>
           <t>https://orcid.org/0009-0004-7028-0658</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr"/>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Гордана</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>Јањушевић Лековић</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>0009-0000-2752-0776</t>
-        </is>
-      </c>
-      <c r="E308" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0000-2752-0776</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr"/>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Ane</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>Ferri</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>0000-0001-9341-8913</t>
-        </is>
-      </c>
-      <c r="E309" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-9341-8913</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr"/>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>Наташа</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>Тучев</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>0000-0002-7542-7151</t>
-        </is>
-      </c>
-      <c r="E310" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-7542-7151</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr"/>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Тамара</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>Тошић</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>0009-0006-8771-2693</t>
-        </is>
-      </c>
-      <c r="E311" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0006-8771-2693</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr"/>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Данко</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>Камчевски</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>0009-0001-2497-3144</t>
-        </is>
-      </c>
-      <c r="E312" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0001-2497-3144</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr"/>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Андријана</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>Аничић</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>0009-0006-7497-8150</t>
-        </is>
-      </c>
-      <c r="E313" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0006-7497-8150</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr"/>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Tamara</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>Kobeshavidze</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>0009-0001-5853-8685</t>
-        </is>
-      </c>
-      <c r="E314" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0001-5853-8685</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr"/>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Ивана</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>Чорбић</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>0009-0005-4555-823X</t>
-        </is>
-      </c>
-      <c r="E315" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0005-4555-823X</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr"/>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Ирена</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>Алексић-Хајдуковић</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>0000-0002-1884-4784</t>
-        </is>
-      </c>
-      <c r="E316" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-1884-4784</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr"/>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>Марија</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>Гагић</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>0009-0008-7177-9791</t>
-        </is>
-      </c>
-      <c r="E317" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0008-7177-9791</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr"/>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>Данка</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>Синадиновић</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>0000-0002-3643-5917</t>
-        </is>
-      </c>
-      <c r="E318" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-3643-5917</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr"/>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>Маја</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>Бркљач</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>0009-0005-2793-801X</t>
-        </is>
-      </c>
-      <c r="E319" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0005-2793-801X</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr"/>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>Милица</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>Спремић Кончар</t>
-        </is>
-      </c>
-      <c r="E320" s="50" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr"/>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Милица</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>Родић</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>0009-0007-9198-7494</t>
-        </is>
-      </c>
-      <c r="E321" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0007-9198-7494</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr"/>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>Мирјана</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>Вучковић</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>0009-0008-9215-6331</t>
-        </is>
-      </c>
-      <c r="E322" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0008-9215-6331</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr"/>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>Марија</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>Ђорђевић</t>
-        </is>
-      </c>
-      <c r="E323" s="50" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr"/>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>Katarina</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>Lazić</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>0009-0002-5510-4547</t>
-        </is>
-      </c>
-      <c r="E324" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0009-0002-5510-4547</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr"/>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>Antony</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>Hoyte-West</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>0000-0003-4410-6520</t>
-        </is>
-      </c>
-      <c r="E325" s="50" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-4410-6520</t>
         </is>
       </c>
     </row>
@@ -8647,123 +8617,124 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E153" r:id="rId99"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E154" r:id="rId100"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E158" r:id="rId101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E160" r:id="rId102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E164" r:id="rId103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E165" r:id="rId104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E166" r:id="rId105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E167" r:id="rId106"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E168" r:id="rId107"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E170" r:id="rId108"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E171" r:id="rId109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E172" r:id="rId110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E174" r:id="rId111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E176" r:id="rId112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E178" r:id="rId113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E181" r:id="rId114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E182" r:id="rId115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E183" r:id="rId116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E184" r:id="rId117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E185" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E186" r:id="rId119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E191" r:id="rId120"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E192" r:id="rId121"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E194" r:id="rId122"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E195" r:id="rId123"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E196" r:id="rId124"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E198" r:id="rId125"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E200" r:id="rId126"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E201" r:id="rId127"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E202" r:id="rId128"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E203" r:id="rId129"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E204" r:id="rId130"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E205" r:id="rId131"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E207" r:id="rId132"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E208" r:id="rId133"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E210" r:id="rId134"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E214" r:id="rId135"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E215" r:id="rId136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E217" r:id="rId137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E219" r:id="rId138"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E221" r:id="rId139"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E223" r:id="rId140"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E224" r:id="rId141"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E226" r:id="rId142"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E227" r:id="rId143"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E228" r:id="rId144"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E229" r:id="rId145"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E230" r:id="rId146"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E231" r:id="rId147"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E233" r:id="rId148"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E234" r:id="rId149"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E236" r:id="rId150"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E237" r:id="rId151"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E238" r:id="rId152"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E240" r:id="rId153"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E241" r:id="rId154"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E244" r:id="rId155"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E246" r:id="rId156"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E248" r:id="rId157"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E249" r:id="rId158"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E250" r:id="rId159"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E251" r:id="rId160"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E253" r:id="rId161"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D255" r:id="rId162"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E255" r:id="rId163"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E256" r:id="rId164"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E259" r:id="rId165"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E260" r:id="rId166"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E263" r:id="rId167"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E266" r:id="rId168"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E267" r:id="rId169"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E268" r:id="rId170"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E269" r:id="rId171"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E270" r:id="rId172"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E273" r:id="rId173"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E274" r:id="rId174"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E275" r:id="rId175"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E276" r:id="rId176"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E277" r:id="rId177"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E279" r:id="rId178"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E281" r:id="rId179"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E284" r:id="rId180"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E285" r:id="rId181"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E286" r:id="rId182"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E287" r:id="rId183"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E288" r:id="rId184"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E289" r:id="rId185"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E290" r:id="rId186"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E291" r:id="rId187"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E292" r:id="rId188"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E293" r:id="rId189"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E294" r:id="rId190"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E295" r:id="rId191"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E296" r:id="rId192"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E297" r:id="rId193"/>
-    <hyperlink ref="E301"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E302" r:id="rId194"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E303" r:id="rId195"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E304" r:id="rId196"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E305" r:id="rId197"/>
-    <hyperlink ref="E306"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E307" r:id="rId198"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E308" r:id="rId199"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E309" r:id="rId200"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E310" r:id="rId201"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E311" r:id="rId202"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E312" r:id="rId203"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E313" r:id="rId204"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E314" r:id="rId205"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E315" r:id="rId206"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E316" r:id="rId207"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E317" r:id="rId208"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E318" r:id="rId209"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E319" r:id="rId210"/>
-    <hyperlink ref="E320"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E321" r:id="rId211"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E322" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E159" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E160" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E164" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E165" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E166" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E167" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E168" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E170" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E171" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E172" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E174" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E176" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E178" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E181" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E182" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E183" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E184" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E185" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E186" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E191" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E192" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E194" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E195" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E196" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E198" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E200" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E201" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E202" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E203" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E204" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E205" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E207" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E208" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E210" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E214" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E215" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E217" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E219" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E221" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E223" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E224" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E226" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E227" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E228" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E229" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E230" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E231" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E233" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E234" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E236" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E237" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E238" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E240" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E241" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E244" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E246" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E248" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E249" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E250" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E251" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E253" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D255" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E255" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E256" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E258" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E259" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E260" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E263" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E266" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E267" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E268" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E269" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E270" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E273" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E274" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E275" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E276" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E277" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E279" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E281" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E284" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E285" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E286" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E287" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E288" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E289" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E290" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E291" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E292" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E293" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E294" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E295" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E296" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E297" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E301" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E302" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E303" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E304" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E305" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E306" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E307" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E308" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E309" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E310" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E311" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E312" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E313" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E314" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E315" r:id="rId210"/>
+    <hyperlink ref="E316"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E317" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E318" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E319" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E320" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E321" r:id="rId215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E322" r:id="rId216"/>
     <hyperlink ref="E323"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E324" r:id="rId213"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E325" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E324" r:id="rId217"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
